--- a/quizzes.xlsx
+++ b/quizzes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\OneDrive\Documents\Study\STAT\ISL_notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\OneDrive\Documents\Study\STAT\ISL on edX\ISL_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6174147-4D7E-41F5-9542-33FA754A3471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F476D84-647B-4DE7-938D-8CAFE3EEACAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{50F15EF0-1974-485D-A0C1-DF83B7D52721}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{50F15EF0-1974-485D-A0C1-DF83B7D52721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>2.2 Review Questions</t>
   </si>
@@ -316,17 +316,250 @@
   </si>
   <si>
     <t>What if TV=$250? (with 4 decimal accuracy)</t>
+  </si>
+  <si>
+    <t>4.3.R1</t>
+  </si>
+  <si>
+    <r>
+      <t>Suppose we collect data for a group of students in a statistics class with variables </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> hours studied, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> undergrad GPA, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> receive an A. We fit a logistic regression and produce estimated coefficients </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=−6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=0.05,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Math-italic"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimate the probability that a student who studies for 40h and has an undergrad GPA of 3.5 gets an A in the class (within 0.01 accuracy):</t>
+  </si>
+  <si>
+    <t>4.3.R2</t>
+  </si>
+  <si>
+    <t>1/1 point (graded)</t>
+  </si>
+  <si>
+    <t>How many hours would that student need to study to have a 50% chance of getting an A in the class?:</t>
+  </si>
+  <si>
+    <t>Calculation:</t>
+  </si>
+  <si>
+    <t>50 hours</t>
+  </si>
+  <si>
+    <t>4.5 R1</t>
+  </si>
+  <si>
+    <t>Suppose that in Ad Clicks (a problem where you try to model if a user will click on a particular ad) it is well known that the majority of the time an ad is shown it will not be clicked. What is another way of saying that?</t>
+  </si>
+  <si>
+    <t>Ad Clicks have a low Prior Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +641,25 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="MathJax_Main"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="MathJax_Math-italic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -455,7 +707,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,6 +732,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,6 +784,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E3BFEF-32B2-46E3-B1F3-1B89C065290C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -818,17 +1133,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA67D9-5755-43CA-8DA9-F631EB5EA2BE}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA67D9-5755-43CA-8DA9-F631EB5EA2BE}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="108.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -977,9 +1293,135 @@
         <v>0.30389999999999961</v>
       </c>
     </row>
+    <row r="38" spans="1:2" ht="18.600000000000001">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26.4">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="12">
+        <f>(-6) + (50*0.05)+ 3.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2.71828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="13">
+        <f>B43^B42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.600000000000001">
+      <c r="A45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="13">
+        <f>1+B44</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44/B45</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" ht="18.600000000000001">
+      <c r="A52" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="26.4">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="14.4">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>